--- a/rest/result_2021-01-13.xlsx
+++ b/rest/result_2021-01-13.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -362,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>44209.64940174769</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -398,6 +399,52 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>文件夹为空：D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="n">
+        <v>44209.70281829861</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>文件夹为空：D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="n">
+        <v>44209.70344568287</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>文件夹为空：D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="3" t="n">
+        <v>44209.70393753472</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>文件夹为空：D:\Working\ViveBest\ProjectData\中国银行\新建文件夹</t>
         </is>
